--- a/approaches/our_data/our_ground_truth/GitLab Project API/response_property_constraints.xlsx
+++ b/approaches/our_data/our_ground_truth/GitLab Project API/response_property_constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\our_data\our_ground_truth\GitLab Project API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C950E5-0740-4EE3-8A6F-5AAD6EA9B482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD40135C-E768-4DC4-B7C9-CCDA9215F9CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="54">
   <si>
     <t>operation</t>
   </si>
@@ -1025,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D140" sqref="D140:D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2915,6 +2915,118 @@
         <v>13</v>
       </c>
     </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>47</v>
+      </c>
+      <c r="B135" t="s">
+        <v>39</v>
+      </c>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>47</v>
+      </c>
+      <c r="B136" t="s">
+        <v>39</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" t="s">
+        <v>43</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>47</v>
+      </c>
+      <c r="B140" t="s">
+        <v>48</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>47</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" t="s">
+        <v>43</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D134" xr:uid="{4C58C763-53DB-4D42-ADE6-18147062F5E2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
